--- a/templates/dataplant/GEO/Assay_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Assay_GEO_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2E58E9-3E98-4FB8-9910-8059611590D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71837E0D-AE51-467A-BC1C-4BD9A1C01665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="1" r:id="rId1"/>
@@ -566,9 +566,6 @@
     <t>d5be4b6a-c720-404e-9e14-21ba698e2a37</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>DPBO:1000096</t>
   </si>
   <si>
@@ -744,6 +741,9 @@
   </si>
   <si>
     <t>EFO:0004184</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1495,22 +1495,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
-        <v>124</v>
-      </c>
       <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
         <v>127</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>128</v>
-      </c>
-      <c r="G1" t="s">
-        <v>129</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1597,12 +1597,12 @@
         <v>30</v>
       </c>
       <c r="AJ1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -1611,7 +1611,7 @@
         <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -1841,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA628F8D-856A-498A-8154-924F19E80D38}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1864,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,7 +1896,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1943,10 +1943,10 @@
         <v>54</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>57</v>
@@ -1963,10 +1963,10 @@
         <v>43</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1978,10 +1978,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1999,7 +1999,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2021,7 +2021,7 @@
         <v>49</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,7 @@
         <v>53</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,16 +2166,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -2183,7 +2183,7 @@
         <v>79</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>77</v>
@@ -2203,13 +2203,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>60</v>
@@ -2235,13 +2235,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>60</v>
@@ -2267,20 +2267,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
         <v>73</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>82</v>
@@ -2299,13 +2299,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -2331,13 +2331,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -2361,13 +2361,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -2391,13 +2391,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>74</v>
@@ -2423,13 +2423,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -2453,18 +2453,18 @@
         <v>16</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>84</v>
@@ -2483,20 +2483,20 @@
         <v>19</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>85</v>
@@ -2517,18 +2517,18 @@
         <v>72</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>85</v>
@@ -2549,18 +2549,18 @@
         <v>22</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>85</v>
@@ -2581,18 +2581,18 @@
         <v>25</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>85</v>
@@ -2611,18 +2611,18 @@
         <v>28</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>88</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>58</v>
@@ -2652,7 +2652,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12" t="s">

--- a/templates/dataplant/GEO/Assay_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Assay_GEO_minimal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\dataplant\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71837E0D-AE51-467A-BC1C-4BD9A1C01665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13D9C7A-04A2-46CC-8031-6B88DB4270F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="1" r:id="rId1"/>
@@ -51,75 +51,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FE474B9F-503E-412C-A5AC-B37404038F21}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=d5be4b6a-c720-404e-9e14-21ba698e2a37</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{DC11A516-F691-4B73-BFD6-2EBEF0387259}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{1B83D59B-07F6-4DC8-88BA-B816B4964C78}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{CBBD094A-20F8-4D6E-A895-17A08C4260DC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{8F416074-1862-4CEC-BFAF-5917D44CCFC9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{98DC8D9D-EF31-497F-91ED-DA18F3C54B75}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A4638DCA-6DFB-4170-BFEA-815F548CADBA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{956A1034-5087-45B2-9467-2B3B8027FEF5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{9213BFC8-5B9D-4E70-8311-3955A4860E34}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="176">
   <si>
     <t>Source Name</t>
   </si>
@@ -745,6 +745,12 @@
   <si>
     <t>1.0.0</t>
   </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C153189</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
 </sst>
 </file>
 
@@ -753,7 +759,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +784,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -909,11 +923,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,10 +965,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{3A68927A-4D0F-438E-A11A-69BC80D82D4C}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -1439,58 +1458,58 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="40" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="33" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="15.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="15.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1619,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>124</v>
       </c>
@@ -1692,7 +1711,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>124</v>
       </c>
@@ -1748,7 +1767,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>124</v>
       </c>
@@ -1797,7 +1816,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>124</v>
       </c>
@@ -1842,16 +1861,16 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1859,7 +1878,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -1867,7 +1886,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -1875,7 +1894,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1883,7 +1902,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1891,7 +1910,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1899,13 +1918,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1913,7 +1932,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1921,7 +1940,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
@@ -1929,13 +1948,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
@@ -1958,7 +1977,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
@@ -1971,9 +1990,11 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1986,15 +2007,17 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -2002,7 +2025,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
@@ -2010,13 +2033,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -2024,25 +2047,25 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
@@ -2050,33 +2073,36 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B27" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G13" r:id="rId1" xr:uid="{FC8AF2EE-3481-4D7F-AF7D-BA30FB076A9C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2088,23 +2114,23 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>58</v>
       </c>
@@ -2142,7 +2168,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2190,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>130</v>
       </c>
@@ -2198,7 +2224,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -2230,7 +2256,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -2262,7 +2288,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2320,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -2326,7 +2352,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
@@ -2356,7 +2382,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
@@ -2386,7 +2412,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
@@ -2418,7 +2444,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
@@ -2448,7 +2474,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
@@ -2478,7 +2504,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
@@ -2512,7 +2538,7 @@
       </c>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>72</v>
       </c>
@@ -2544,7 +2570,7 @@
       </c>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
@@ -2576,7 +2602,7 @@
       </c>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
@@ -2606,7 +2632,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
@@ -2636,7 +2662,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>125</v>
       </c>

--- a/templates/dataplant/GEO/Assay_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Assay_GEO_minimal.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13D9C7A-04A2-46CC-8031-6B88DB4270F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CF5828-13D3-44CF-9373-044339F6D5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="4" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="4" r:id="rId2"/>
     <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="176">
   <si>
     <t>Source Name</t>
   </si>
@@ -1858,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA628F8D-856A-498A-8154-924F19E80D38}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1870,7 +1870,7 @@
     <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1918,13 +1918,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
@@ -1948,76 +1948,67 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="7" t="s">
         <v>172</v>
       </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="7" t="s">
         <v>170</v>
       </c>
+      <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -2099,7 +2090,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1" xr:uid="{FC8AF2EE-3481-4D7F-AF7D-BA30FB076A9C}"/>
+    <hyperlink ref="F13" r:id="rId1" xr:uid="{FC8AF2EE-3481-4D7F-AF7D-BA30FB076A9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>

--- a/templates/dataplant/GEO/Assay_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Assay_GEO_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CF5828-13D3-44CF-9373-044339F6D5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9956EB9C-3C19-4ABB-8D56-0A582B75B49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="171">
   <si>
     <t>Source Name</t>
   </si>
@@ -151,12 +151,6 @@
     <t>Parameter [Library preparation kit]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000037)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000037)</t>
-  </si>
-  <si>
     <t>Parameter [Library preparation kit version]</t>
   </si>
   <si>
@@ -166,61 +160,22 @@
     <t>Parameter [Library RNA amount]</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000016)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000016)</t>
-  </si>
-  <si>
     <t>Parameter [rRNA depletion]</t>
   </si>
   <si>
     <t>Parameter [Next generation sequencing instrument model]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000040)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000040)</t>
-  </si>
-  <si>
     <t>Parameter [Base-calling Software]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000017)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000017)</t>
-  </si>
-  <si>
     <t>Parameter [Base-calling Software Parameters]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000019)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000019)</t>
-  </si>
-  <si>
     <t>Parameter [Library strand]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000020)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000020)</t>
-  </si>
-  <si>
     <t>Parameter [Raw data file format]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000021)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000021)</t>
   </si>
   <si>
     <t>Id</t>
@@ -500,54 +455,12 @@
     <t>ssRNA-seq</t>
   </si>
   <si>
-    <t>Illumina TrueSeq</t>
-  </si>
-  <si>
-    <t>HiSeq 2000</t>
-  </si>
-  <si>
-    <t>Illumina Casava</t>
-  </si>
-  <si>
-    <t>1.70</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000018)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000018)</t>
-  </si>
-  <si>
-    <t>.fastq</t>
-  </si>
-  <si>
-    <t>.ab1</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000009</t>
   </si>
   <si>
     <t>paired-end</t>
   </si>
   <si>
-    <t>microgram</t>
-  </si>
-  <si>
-    <t>UO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
-  </si>
-  <si>
     <t>DataPLANT</t>
   </si>
   <si>
@@ -743,22 +656,91 @@
     <t>EFO:0004184</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C153189</t>
   </si>
   <si>
     <t>NCIT</t>
+  </si>
+  <si>
+    <t>Parameter [library preparation kit]</t>
+  </si>
+  <si>
+    <t>Term Source REF (GENEPIO:0000085)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (GENEPIO:0000085)</t>
+  </si>
+  <si>
+    <t>Parameter [library RNA amount]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000016)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000016)</t>
+  </si>
+  <si>
+    <t>Parameter [next generation sequencing instrument model]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000040)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000040)</t>
+  </si>
+  <si>
+    <t>Parameter [base-calling software]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000017)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000017)</t>
+  </si>
+  <si>
+    <t>Parameter [base-calling software version]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000018)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000018)</t>
+  </si>
+  <si>
+    <t>Parameter [base-calling software parameters]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000019)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000019)</t>
+  </si>
+  <si>
+    <t>Parameter [library strand]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000020)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000020)</t>
+  </si>
+  <si>
+    <t>Parameter [raw data file format]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000021)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000021)</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -928,9 +910,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -974,72 +955,75 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{3A68927A-4D0F-438E-A11A-69BC80D82D4C}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
@@ -1079,45 +1063,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}" name="annotationTableSpicySloth84" displayName="annotationTableSpicySloth84" ref="A1:AJ5" totalsRowShown="0">
-  <autoFilter ref="A1:AJ5" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}"/>
-  <tableColumns count="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}" name="annotationTableSpicySloth84" displayName="annotationTableSpicySloth84" ref="A1:AI5" totalsRowShown="0">
+  <autoFilter ref="A1:AI5" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}"/>
+  <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{DDD81922-E978-4A5A-A247-30D8EC830850}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{7CA79E74-6A6D-4226-9CA5-F112305A31B1}" name="Protocol Type"/>
-    <tableColumn id="44" xr3:uid="{7D6AC9A3-AD92-4DFB-90A6-E3298ED27C46}" name="Term Source REF (DPBO:1000161)" dataDxfId="27"/>
-    <tableColumn id="45" xr3:uid="{23A6DD84-4262-4DF8-8DB3-AC87CDC85432}" name="Term Accession Number (DPBO:1000161)" dataDxfId="26"/>
-    <tableColumn id="47" xr3:uid="{BE14D144-54FC-4C26-BA6C-E7FB688C0692}" name="Parameter [library layout]" dataDxfId="25"/>
-    <tableColumn id="48" xr3:uid="{D1FEDF66-D3B4-454A-9971-A74272B91681}" name="Term Source REF (DPBO:0000015)" dataDxfId="24"/>
-    <tableColumn id="49" xr3:uid="{BE7F58A1-1721-4B1B-8584-87D53E184A67}" name="Term Accession Number (DPBO:0000015)" dataDxfId="23"/>
+    <tableColumn id="44" xr3:uid="{7D6AC9A3-AD92-4DFB-90A6-E3298ED27C46}" name="Term Source REF (DPBO:1000161)" dataDxfId="28"/>
+    <tableColumn id="45" xr3:uid="{23A6DD84-4262-4DF8-8DB3-AC87CDC85432}" name="Term Accession Number (DPBO:1000161)" dataDxfId="27"/>
+    <tableColumn id="47" xr3:uid="{BE14D144-54FC-4C26-BA6C-E7FB688C0692}" name="Parameter [library layout]" dataDxfId="26"/>
+    <tableColumn id="48" xr3:uid="{D1FEDF66-D3B4-454A-9971-A74272B91681}" name="Term Source REF (DPBO:0000015)" dataDxfId="25"/>
+    <tableColumn id="49" xr3:uid="{BE7F58A1-1721-4B1B-8584-87D53E184A67}" name="Term Accession Number (DPBO:0000015)" dataDxfId="24"/>
     <tableColumn id="3" xr3:uid="{447A413B-B655-4E5D-BC02-D7557A9E4C62}" name="Parameter [Library strategy]"/>
     <tableColumn id="4" xr3:uid="{9BBFE835-D0D7-4C6D-A1A5-68598432EDA2}" name="Term Source REF (NFDI4PSO:0000035)"/>
     <tableColumn id="5" xr3:uid="{657A280A-234C-47CD-8764-45FAAED69AFE}" name="Term Accession Number (NFDI4PSO:0000035)"/>
-    <tableColumn id="12" xr3:uid="{150C2988-8D46-4AC4-813D-CE7E31383FC6}" name="Parameter [Library preparation kit]"/>
-    <tableColumn id="13" xr3:uid="{E9932180-7769-4F23-9CBA-681C4C61BB01}" name="Term Source REF (NFDI4PSO:0000037)"/>
-    <tableColumn id="14" xr3:uid="{57BBB7A8-9936-446A-A02D-E31B58B8FA05}" name="Term Accession Number (NFDI4PSO:0000037)"/>
-    <tableColumn id="21" xr3:uid="{C2221C5A-A581-47B0-99E1-8D8101F1F64D}" name="Parameter [Library RNA amount]" dataDxfId="22"/>
-    <tableColumn id="22" xr3:uid="{406988CC-530E-4763-91F9-71C83D968873}" name="Unit" dataDxfId="21"/>
-    <tableColumn id="23" xr3:uid="{05065244-1A82-4F1F-B9B7-0A69AAE33604}" name="Term Source REF (NFDI4PSO:0000016)" dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{6CD94A2D-03CE-49DA-96F8-3F68DB81454E}" name="Term Accession Number (NFDI4PSO:0000016)" dataDxfId="19"/>
-    <tableColumn id="28" xr3:uid="{9C794364-C911-4D05-A9A8-DFDE330A09C2}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="18"/>
-    <tableColumn id="29" xr3:uid="{AE615784-B0E6-47BF-AE01-023BF5AA206E}" name="Term Source REF (NFDI4PSO:0000040)" dataDxfId="17"/>
-    <tableColumn id="30" xr3:uid="{BAD8DB17-65F5-45BD-A7AA-6B024B5CE069}" name="Term Accession Number (NFDI4PSO:0000040)" dataDxfId="16"/>
-    <tableColumn id="31" xr3:uid="{9791FFA0-96AA-41FF-837C-5CD04C7414C8}" name="Parameter [Base-calling Software]" dataDxfId="15"/>
-    <tableColumn id="32" xr3:uid="{482633AE-33E1-4455-8BC3-9D5A09A98094}" name="Term Source REF (NFDI4PSO:0000017)" dataDxfId="14"/>
-    <tableColumn id="33" xr3:uid="{98CB4042-CD1B-4E0C-B718-7E81226BF0F8}" name="Term Accession Number (NFDI4PSO:0000017)" dataDxfId="13"/>
-    <tableColumn id="50" xr3:uid="{3CCB5926-3B22-468E-A9A9-17F469915A9F}" name="Parameter [Base-calling Software Version]" dataDxfId="12"/>
-    <tableColumn id="51" xr3:uid="{9873F5F5-4534-4DF9-B18C-69858B28E021}" name="Term Source REF (NFDI4PSO:0000018)" dataDxfId="11"/>
-    <tableColumn id="52" xr3:uid="{E50595D3-C218-4183-8EC4-0B001A8697BD}" name="Term Accession Number (NFDI4PSO:0000018)" dataDxfId="10"/>
-    <tableColumn id="34" xr3:uid="{228D9D5B-B4BB-432B-8766-144F2F7EE00C}" name="Parameter [Base-calling Software Parameters]" dataDxfId="9"/>
-    <tableColumn id="35" xr3:uid="{EE5985B1-BFA8-4880-80F1-BBC5E373AEA4}" name="Term Source REF (NFDI4PSO:0000019)" dataDxfId="8"/>
-    <tableColumn id="36" xr3:uid="{5957DE4F-4101-47BD-A1D2-8A8C3805387F}" name="Term Accession Number (NFDI4PSO:0000019)" dataDxfId="7"/>
-    <tableColumn id="37" xr3:uid="{4A320B98-D8B0-4EDC-B8A1-FC383E287715}" name="Parameter [Library strand]" dataDxfId="6"/>
-    <tableColumn id="38" xr3:uid="{7F1459B7-C0FC-4A4F-8689-0ECFAC987DAE}" name="Term Source REF (NFDI4PSO:0000020)" dataDxfId="5"/>
-    <tableColumn id="39" xr3:uid="{962B06C3-A58B-4E1F-BB1E-C42413A846FB}" name="Term Accession Number (NFDI4PSO:0000020)" dataDxfId="4"/>
-    <tableColumn id="40" xr3:uid="{2AFADBEA-D2CA-4459-8C9D-3DC3FA4E226B}" name="Parameter [Raw data file format]" dataDxfId="3"/>
-    <tableColumn id="41" xr3:uid="{CC4AA291-442E-477D-A16A-36D7D1CB0B50}" name="Term Source REF (NFDI4PSO:0000021)" dataDxfId="2"/>
-    <tableColumn id="42" xr3:uid="{E3E37F73-63D0-4BEE-A350-CE87A85AB65F}" name="Term Accession Number (NFDI4PSO:0000021)" dataDxfId="1"/>
-    <tableColumn id="46" xr3:uid="{1273654C-65DC-44DB-9A79-9BE76103F8D4}" name="Raw Data File" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{4CE26773-A7A5-48E1-AF87-A987717F87AF}" name="Parameter [library preparation kit]"/>
+    <tableColumn id="7" xr3:uid="{C9CAFD52-851B-47B7-9724-185FBDC6731F}" name="Term Source REF (GENEPIO:0000085)" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{86669995-DC5A-4D36-9C12-062BBD770FFC}" name="Term Accession Number (GENEPIO:0000085)" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{25A2DDFD-5645-459D-9492-E2376966E098}" name="Parameter [library RNA amount]" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{A63BF9AA-E389-4850-BE04-3A61D6829823}" name="Term Source REF (DPBO:0000016)" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{6F06800E-DBB1-4779-8CEA-FF7994D2B9CE}" name="Term Accession Number (DPBO:0000016)" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{AAC066E6-D8FC-4959-ABF5-9DB19875E13E}" name="Parameter [next generation sequencing instrument model]" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{90950E80-0B14-4569-995E-2A698BE81755}" name="Term Source REF (DPBO:0000040)" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{2EF5A91C-2CB0-4443-890C-A4746CFA36BD}" name="Term Accession Number (DPBO:0000040)" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{A444C9A6-9C8F-45C0-8C28-FF62823FD432}" name="Parameter [base-calling software]" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{5EDCEE64-FCBF-4F61-B13E-36A29C04719B}" name="Term Source REF (DPBO:0000017)" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{09EA8B34-A052-42CB-AC21-BE8E34F13F0C}" name="Term Accession Number (DPBO:0000017)" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{BB95E6EA-F2B2-4A59-A524-578656943233}" name="Parameter [base-calling software version]" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{44757A0F-8F7F-4AB0-8C1C-BCA36FB5991D}" name="Term Source REF (DPBO:0000018)" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{EE639FE6-614E-42AC-AAF7-4C148DEA711A}" name="Term Accession Number (DPBO:0000018)" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{3951B4F5-C303-4461-829E-F5FBDAFBD188}" name="Parameter [base-calling software parameters]" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{667A80CF-70CB-4C05-94E1-21A9CAA333CA}" name="Term Source REF (DPBO:0000019)" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{F2777F6A-50ED-40CD-A644-BE89DD6EF357}" name="Term Accession Number (DPBO:0000019)" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{9F244CBA-AA48-4B66-B1E8-5133EBEEE49D}" name="Parameter [library strand]" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{FDD32D84-1CF8-4EC0-8037-AA4B3A9099CC}" name="Term Source REF (DPBO:0000020)" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{355EC565-C0B9-4749-B627-37A058A18004}" name="Term Accession Number (DPBO:0000020)" dataDxfId="3"/>
+    <tableColumn id="27" xr3:uid="{0179074D-659B-42D7-A072-FFFD23599315}" name="Parameter [raw data file format]" dataDxfId="2"/>
+    <tableColumn id="28" xr3:uid="{201EE931-0E98-4E3F-BD85-C20EF806E713}" name="Term Source REF (DPBO:0000021)" dataDxfId="1"/>
+    <tableColumn id="29" xr3:uid="{F6969679-FC1E-4AC8-9B23-0BF478C792AC}" name="Term Accession Number (DPBO:0000021)" dataDxfId="0"/>
+    <tableColumn id="46" xr3:uid="{1273654C-65DC-44DB-9A79-9BE76103F8D4}" name="Raw Data File" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1421,7 +1404,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="608" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="566" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
@@ -1454,48 +1437,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="40" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="32.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="57.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="32.6640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="32.6640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="45.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="33" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="15.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.5546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="41" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="53.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="42" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.6640625" style="12" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="15.109375" bestFit="1" customWidth="1"/>
@@ -1514,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1541,311 +1524,476 @@
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="M1" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>72</v>
+        <v>158</v>
+      </c>
+      <c r="X1" t="s">
+        <v>159</v>
       </c>
       <c r="Y1" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="Z1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>22</v>
+        <v>161</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>162</v>
       </c>
       <c r="AB1" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="AC1" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="AD1" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="AE1" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="AF1" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="AG1" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="AH1" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="AI1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>125</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AJ1"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R2" t="s">
-        <v>93</v>
-      </c>
-      <c r="S2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" s="12"/>
+      <c r="AJ2"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="12"/>
+      <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI4" s="12"/>
+      <c r="AJ4"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" t="s">
-        <v>105</v>
-      </c>
-      <c r="P5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="12"/>
+      <c r="AJ5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1860,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA628F8D-856A-498A-8154-924F19E80D38}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1871,222 +2019,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B16" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B17" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B19" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>119</v>
+      <c r="B23" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="7"/>
+      <c r="A24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="7"/>
+      <c r="A25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="7"/>
+      <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="10"/>
+      <c r="A27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2122,564 +2270,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="G6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="J10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="K13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
